--- a/tabeles.xlsx
+++ b/tabeles.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\namaddul\Desktop\my project\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9225" windowHeight="4545"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9228" windowHeight="4548"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="48">
   <si>
     <t>COLUMN</t>
   </si>
@@ -59,9 +54,6 @@
     <t>CHECK</t>
   </si>
   <si>
-    <t>BRANCH NO</t>
-  </si>
-  <si>
     <t>NUMBER(7)</t>
   </si>
   <si>
@@ -74,12 +66,6 @@
     <t>NUMBER(3)</t>
   </si>
   <si>
-    <t>BRANCH_ID</t>
-  </si>
-  <si>
-    <t>BRANCH_NAME</t>
-  </si>
-  <si>
     <t>VARCHAR(10)</t>
   </si>
   <si>
@@ -92,9 +78,6 @@
     <t>NUMBER(2)</t>
   </si>
   <si>
-    <t>VARHCHAR(3)</t>
-  </si>
-  <si>
     <t>SEM_ID</t>
   </si>
   <si>
@@ -143,9 +126,6 @@
     <t>FOREIGNKEY</t>
   </si>
   <si>
-    <t>BRANCH_NO</t>
-  </si>
-  <si>
     <t>YEAR_OF_PLACEMENT</t>
   </si>
   <si>
@@ -177,6 +157,12 @@
   </si>
   <si>
     <t>TABLE: STUDENT_DETAILS</t>
+  </si>
+  <si>
+    <t>DEPT_ID</t>
+  </si>
+  <si>
+    <t>DEPT_NAME</t>
   </si>
 </sst>
 </file>
@@ -326,7 +312,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -361,7 +347,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -538,7 +524,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -549,34 +535,34 @@
   <dimension ref="B3:L23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="22.5703125" customWidth="1"/>
-    <col min="3" max="3" width="14.28515625" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" customWidth="1"/>
-    <col min="6" max="6" width="25.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="22.5546875" customWidth="1"/>
+    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" customWidth="1"/>
+    <col min="6" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
     <col min="8" max="8" width="14" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="23.6640625" customWidth="1"/>
+    <col min="11" max="11" width="14.44140625" customWidth="1"/>
     <col min="12" max="12" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="J3" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>0</v>
       </c>
@@ -605,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
@@ -613,28 +599,28 @@
         <v>8</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J5" s="2" t="s">
         <v>3</v>
       </c>
       <c r="K5" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -642,28 +628,28 @@
         <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="K6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>5</v>
       </c>
@@ -671,54 +657,54 @@
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="J9" s="4"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>7</v>
       </c>
@@ -726,7 +712,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>0</v>
@@ -741,46 +727,46 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="F12" s="2" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
         <v>0</v>
       </c>
@@ -800,27 +786,27 @@
         <v>2</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B18" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
         <v>0</v>
@@ -832,104 +818,104 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J19" s="2" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>8</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B20" s="2" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L20" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="J20" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B22" s="2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B23" s="2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
